--- a/Code/Results/Cases/Case_3_189/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_189/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.198808722265341</v>
+        <v>0.4736548282512274</v>
       </c>
       <c r="C2">
-        <v>0.1206712537983563</v>
+        <v>0.2167045972234583</v>
       </c>
       <c r="D2">
-        <v>0.08417492776199964</v>
+        <v>0.03549638714461167</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3553839749022387</v>
+        <v>0.6267297712044311</v>
       </c>
       <c r="G2">
-        <v>0.2536682351530217</v>
+        <v>0.4675799249437631</v>
       </c>
       <c r="H2">
-        <v>0.2476204854822583</v>
+        <v>0.6281267015680569</v>
       </c>
       <c r="I2">
-        <v>0.2752795660400942</v>
+        <v>0.6475669555290722</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9887261864213883</v>
+        <v>0.3035872364264662</v>
       </c>
       <c r="L2">
-        <v>0.4023580874264212</v>
+        <v>0.3015734276458062</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.004715785231213</v>
+        <v>2.149556015944952</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.043317788322383</v>
+        <v>0.4261442327014038</v>
       </c>
       <c r="C3">
-        <v>0.1227825895770529</v>
+        <v>0.2178611245974764</v>
       </c>
       <c r="D3">
-        <v>0.07498142558048215</v>
+        <v>0.03238533503401442</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3429322542387681</v>
+        <v>0.6288625145977704</v>
       </c>
       <c r="G3">
-        <v>0.2498675868390876</v>
+        <v>0.4711170883961273</v>
       </c>
       <c r="H3">
-        <v>0.2513366219801227</v>
+        <v>0.633257725356394</v>
       </c>
       <c r="I3">
-        <v>0.2816502982191338</v>
+        <v>0.654474542775894</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8693835387744002</v>
+        <v>0.2649351231132471</v>
       </c>
       <c r="L3">
-        <v>0.355124340972182</v>
+        <v>0.2901931964065341</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.004108000203487</v>
+        <v>2.167564603810419</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9478650108873978</v>
+        <v>0.3969783963001134</v>
       </c>
       <c r="C4">
-        <v>0.1241659956231764</v>
+        <v>0.2186236695307926</v>
       </c>
       <c r="D4">
-        <v>0.06931919263754338</v>
+        <v>0.03046043976647184</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3360455473365178</v>
+        <v>0.6305680382662757</v>
       </c>
       <c r="G4">
-        <v>0.2482235504326553</v>
+        <v>0.4736201968416864</v>
       </c>
       <c r="H4">
-        <v>0.2540601775117892</v>
+        <v>0.6366780062700741</v>
       </c>
       <c r="I4">
-        <v>0.2862141131978504</v>
+        <v>0.6590698188082804</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7959919555619877</v>
+        <v>0.2411067174988517</v>
       </c>
       <c r="L4">
-        <v>0.3264921883864673</v>
+        <v>0.2833747787254453</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.00611342897507</v>
+        <v>2.179881040412099</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9089623206995725</v>
+        <v>0.3850953945984088</v>
       </c>
       <c r="C5">
-        <v>0.1247514576864681</v>
+        <v>0.2189476328174322</v>
       </c>
       <c r="D5">
-        <v>0.0670070237644893</v>
+        <v>0.02967237630085862</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.333421615388346</v>
+        <v>0.6313626603166611</v>
       </c>
       <c r="G5">
-        <v>0.2477193033076972</v>
+        <v>0.4747234837178382</v>
       </c>
       <c r="H5">
-        <v>0.2552778037871519</v>
+        <v>0.6381396941951323</v>
       </c>
       <c r="I5">
-        <v>0.2882323207925808</v>
+        <v>0.6610314406230131</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7660492326996149</v>
+        <v>0.2313730080356748</v>
       </c>
       <c r="L5">
-        <v>0.3149095248282094</v>
+        <v>0.2806388413277716</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.007505457220816</v>
+        <v>2.18521668437802</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9025019877864509</v>
+        <v>0.3831223956892131</v>
       </c>
       <c r="C6">
-        <v>0.1248499797324847</v>
+        <v>0.2190022261793061</v>
       </c>
       <c r="D6">
-        <v>0.06662279119380088</v>
+        <v>0.02954129958363438</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.33299669650075</v>
+        <v>0.6315006235317711</v>
       </c>
       <c r="G6">
-        <v>0.2476453632193767</v>
+        <v>0.4749117102144922</v>
       </c>
       <c r="H6">
-        <v>0.255486402651087</v>
+        <v>0.6383865085456861</v>
       </c>
       <c r="I6">
-        <v>0.2885768518276457</v>
+        <v>0.6613625422681402</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7610749751084995</v>
+        <v>0.2297553367560567</v>
       </c>
       <c r="L6">
-        <v>0.312991156396663</v>
+        <v>0.2801871184021536</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.00777065541368</v>
+        <v>2.186121785241113</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9473403879685236</v>
+        <v>0.3968181275021152</v>
       </c>
       <c r="C7">
-        <v>0.1241738036763316</v>
+        <v>0.2186279850389248</v>
       </c>
       <c r="D7">
-        <v>0.06928802970652725</v>
+        <v>0.03044982640270888</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3360094320626885</v>
+        <v>0.6305783514750303</v>
       </c>
       <c r="G7">
-        <v>0.2482160889492704</v>
+        <v>0.4736347391484301</v>
       </c>
       <c r="H7">
-        <v>0.2540761668675557</v>
+        <v>0.6366974441316415</v>
       </c>
       <c r="I7">
-        <v>0.2862406972314204</v>
+        <v>0.6590959135352037</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7955882873996813</v>
+        <v>0.2409755393205302</v>
       </c>
       <c r="L7">
-        <v>0.3263356456779292</v>
+        <v>0.2833377081989994</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.006129905118883</v>
+        <v>2.179951716904526</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.145185353777634</v>
+        <v>0.4572724467923024</v>
       </c>
       <c r="C8">
-        <v>0.1213810707021743</v>
+        <v>0.2170925067429117</v>
       </c>
       <c r="D8">
-        <v>0.08100837185263998</v>
+        <v>0.03442677135549843</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3509280330819209</v>
+        <v>0.6273829643241342</v>
       </c>
       <c r="G8">
-        <v>0.2522099212981175</v>
+        <v>0.4687307509222265</v>
       </c>
       <c r="H8">
-        <v>0.2488080486775672</v>
+        <v>0.629839908889366</v>
       </c>
       <c r="I8">
-        <v>0.2773374136551716</v>
+        <v>0.6498752189581012</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9475967561307073</v>
+        <v>0.2902802668666311</v>
       </c>
       <c r="L8">
-        <v>0.3859903978555081</v>
+        <v>0.2976144875670457</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.003998197836779</v>
+        <v>2.155504044476743</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.53379821089888</v>
+        <v>0.5758386103598241</v>
       </c>
       <c r="C9">
-        <v>0.1166033466904892</v>
+        <v>0.2144958996641328</v>
       </c>
       <c r="D9">
-        <v>0.1038737376345722</v>
+        <v>0.04210740397899571</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3865973172237673</v>
+        <v>0.6242584414869725</v>
       </c>
       <c r="G9">
-        <v>0.2658765394584748</v>
+        <v>0.4617452119428975</v>
       </c>
       <c r="H9">
-        <v>0.2421409621218373</v>
+        <v>0.6185309833406549</v>
       </c>
       <c r="I9">
-        <v>0.2653150238724393</v>
+        <v>0.6346023920368005</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.245088585426231</v>
+        <v>0.3861815770474379</v>
       </c>
       <c r="L9">
-        <v>0.506278284575032</v>
+        <v>0.3269500514772687</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.019792515346467</v>
+        <v>2.117553894841322</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.820447110035616</v>
+        <v>0.6629253498201706</v>
       </c>
       <c r="C10">
-        <v>0.113531172756467</v>
+        <v>0.2128387197776789</v>
       </c>
       <c r="D10">
-        <v>0.1206314145000391</v>
+        <v>0.0476767791613355</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4172897859545941</v>
+        <v>0.6238783049092476</v>
       </c>
       <c r="G10">
-        <v>0.2800047415307105</v>
+        <v>0.4582210439599166</v>
       </c>
       <c r="H10">
-        <v>0.2397064786524012</v>
+        <v>0.6115232417342824</v>
       </c>
       <c r="I10">
-        <v>0.2601781779911576</v>
+        <v>0.6250940906750664</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.463778750042394</v>
+        <v>0.4561352670904739</v>
       </c>
       <c r="L10">
-        <v>0.5972217354806588</v>
+        <v>0.349317902736999</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.045181174054392</v>
+        <v>2.095766085073663</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.951275971647135</v>
+        <v>0.7025316770110237</v>
       </c>
       <c r="C11">
-        <v>0.1122315167349299</v>
+        <v>0.2121387859658839</v>
       </c>
       <c r="D11">
-        <v>0.1282531690251432</v>
+        <v>0.05019415081019929</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4323616446130316</v>
+        <v>0.6241213970008275</v>
       </c>
       <c r="G11">
-        <v>0.2874438994931126</v>
+        <v>0.4569678903981895</v>
       </c>
       <c r="H11">
-        <v>0.2391880348678512</v>
+        <v>0.6086171248282852</v>
       </c>
       <c r="I11">
-        <v>0.2587331466795249</v>
+        <v>0.621140464518259</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.563410493060616</v>
+        <v>0.4878441844321912</v>
       </c>
       <c r="L11">
-        <v>0.6392823397804364</v>
+        <v>0.3596704841940408</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.060101356579366</v>
+        <v>2.08717825935824</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.000894743540357</v>
+        <v>0.7175274055467185</v>
       </c>
       <c r="C12">
-        <v>0.1117537053139017</v>
+        <v>0.2118814590594482</v>
       </c>
       <c r="D12">
-        <v>0.1311397360098994</v>
+        <v>0.05114505207154707</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4382404296776841</v>
+        <v>0.6242732620389546</v>
       </c>
       <c r="G12">
-        <v>0.2904174757484057</v>
+        <v>0.4565437499295157</v>
       </c>
       <c r="H12">
-        <v>0.2390812213066695</v>
+        <v>0.6075571226137129</v>
       </c>
       <c r="I12">
-        <v>0.2583221138346516</v>
+        <v>0.6196967965971467</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.601169840234121</v>
+        <v>0.4998346420470909</v>
       </c>
       <c r="L12">
-        <v>0.6553202264216793</v>
+        <v>0.3636161673138929</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.066269381953646</v>
+        <v>2.084116648891197</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.990204794770221</v>
+        <v>0.7142979250912163</v>
       </c>
       <c r="C13">
-        <v>0.1118559684078377</v>
+        <v>0.2119365360377969</v>
       </c>
       <c r="D13">
-        <v>0.1305180359791649</v>
+        <v>0.0509403647678397</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.436966509182362</v>
+        <v>0.6242378952586449</v>
       </c>
       <c r="G13">
-        <v>0.2897699192105705</v>
+        <v>0.4566328534277133</v>
       </c>
       <c r="H13">
-        <v>0.2391001647660929</v>
+        <v>0.6077836131641234</v>
       </c>
       <c r="I13">
-        <v>0.2584044494523035</v>
+        <v>0.6200053371413148</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.593036151205382</v>
+        <v>0.4972530509119792</v>
       </c>
       <c r="L13">
-        <v>0.6518610818035881</v>
+        <v>0.3627652666903742</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.064917392533914</v>
+        <v>2.084767551470222</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.955356511985372</v>
+        <v>0.7037654364800972</v>
       </c>
       <c r="C14">
-        <v>0.1121919179389295</v>
+        <v>0.2121174609294982</v>
       </c>
       <c r="D14">
-        <v>0.1284906377086941</v>
+        <v>0.05027242985906355</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4328417904322492</v>
+        <v>0.6241326923914272</v>
       </c>
       <c r="G14">
-        <v>0.2876853350482733</v>
+        <v>0.4569319855817042</v>
       </c>
       <c r="H14">
-        <v>0.239177424729732</v>
+        <v>0.6085291066917407</v>
       </c>
       <c r="I14">
-        <v>0.2586965545623698</v>
+        <v>0.6210206210235931</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.566516299028962</v>
+        <v>0.4888309918381424</v>
       </c>
       <c r="L14">
-        <v>0.6405995059179759</v>
+        <v>0.3599945898257317</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.060598222311569</v>
+        <v>2.086922562178785</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.934021379859161</v>
+        <v>0.6973136529645672</v>
       </c>
       <c r="C15">
-        <v>0.1123995723220474</v>
+        <v>0.2122292874581859</v>
       </c>
       <c r="D15">
-        <v>0.1272488641212988</v>
+        <v>0.04986299000739791</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4303379654197954</v>
+        <v>0.624076041434094</v>
       </c>
       <c r="G15">
-        <v>0.2864291890148891</v>
+        <v>0.4571217785218238</v>
       </c>
       <c r="H15">
-        <v>0.2392365533360206</v>
+        <v>0.6089910138798658</v>
       </c>
       <c r="I15">
-        <v>0.2588934543176222</v>
+        <v>0.6216494777912764</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.550276454241043</v>
+        <v>0.4836699995048548</v>
       </c>
       <c r="L15">
-        <v>0.6337161947556638</v>
+        <v>0.3583007727074516</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.058021099750363</v>
+        <v>2.088267368358132</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.811907044855076</v>
+        <v>0.6603367068794057</v>
       </c>
       <c r="C16">
-        <v>0.1136181003204726</v>
+        <v>0.2128855445108186</v>
       </c>
       <c r="D16">
-        <v>0.1201333351093297</v>
+        <v>0.04751193359936678</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4163281295023609</v>
+        <v>0.6238707886592749</v>
       </c>
       <c r="G16">
-        <v>0.2795398660014499</v>
+        <v>0.4583099896318785</v>
       </c>
       <c r="H16">
-        <v>0.2397526171828019</v>
+        <v>0.6117188298412373</v>
       </c>
       <c r="I16">
-        <v>0.2602912261705974</v>
+        <v>0.6253599523279689</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.45727137538438</v>
+        <v>0.4540606720047435</v>
       </c>
       <c r="L16">
-        <v>0.5944878040376977</v>
+        <v>0.3486448957839343</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.044276739488609</v>
+        <v>2.096353960517249</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.737114390227106</v>
+        <v>0.637649373402752</v>
       </c>
       <c r="C17">
-        <v>0.1143908826088662</v>
+        <v>0.2133019259981168</v>
       </c>
       <c r="D17">
-        <v>0.1157682282386929</v>
+        <v>0.04606546207809004</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4080259650261766</v>
+        <v>0.6238514171396261</v>
       </c>
       <c r="G17">
-        <v>0.2755803354789563</v>
+        <v>0.4591286148948441</v>
       </c>
       <c r="H17">
-        <v>0.2402233974932386</v>
+        <v>0.6134643936608342</v>
       </c>
       <c r="I17">
-        <v>0.2613826117356908</v>
+        <v>0.6277314415719921</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.400260426555178</v>
+        <v>0.4358667601603372</v>
       </c>
       <c r="L17">
-        <v>0.5706069451064195</v>
+        <v>0.3427666659217579</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.036731460186786</v>
+        <v>2.101653880277993</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.694135242040716</v>
+        <v>0.6245993446916884</v>
       </c>
       <c r="C18">
-        <v>0.1148445638355255</v>
+        <v>0.2135464952191484</v>
       </c>
       <c r="D18">
-        <v>0.1132573661709273</v>
+        <v>0.04523197127058154</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.403354481414361</v>
+        <v>0.623879433522724</v>
       </c>
       <c r="G18">
-        <v>0.2733974926893978</v>
+        <v>0.4596324067493853</v>
       </c>
       <c r="H18">
-        <v>0.2405493138613153</v>
+        <v>0.6144949164408757</v>
       </c>
       <c r="I18">
-        <v>0.2620937808147232</v>
+        <v>0.6291304484974489</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.367482596518443</v>
+        <v>0.4253914754667676</v>
       </c>
       <c r="L18">
-        <v>0.5569355366428823</v>
+        <v>0.3394023620362674</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.032706772379242</v>
+        <v>2.104826828466258</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.679589610424301</v>
+        <v>0.6201807067286325</v>
       </c>
       <c r="C19">
-        <v>0.114999744374856</v>
+        <v>0.2136301752068093</v>
       </c>
       <c r="D19">
-        <v>0.1124071856382187</v>
+        <v>0.04494950624514615</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.401790259238453</v>
+        <v>0.6238956452076678</v>
       </c>
       <c r="G19">
-        <v>0.2726743390423252</v>
+        <v>0.4598086373597994</v>
       </c>
       <c r="H19">
-        <v>0.2406689913784774</v>
+        <v>0.6148483896904366</v>
       </c>
       <c r="I19">
-        <v>0.2623486659128673</v>
+        <v>0.6296101367582168</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.356386599391897</v>
+        <v>0.421842920674095</v>
       </c>
       <c r="L19">
-        <v>0.552317333467343</v>
+        <v>0.3382661380113205</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.031397226839218</v>
+        <v>2.105922527322647</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.745071992944418</v>
+        <v>0.6400645758858445</v>
       </c>
       <c r="C20">
-        <v>0.1143076648718164</v>
+        <v>0.2132570761960437</v>
       </c>
       <c r="D20">
-        <v>0.1162329146625183</v>
+        <v>0.04621959896415717</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4088989284331461</v>
+        <v>0.6238494266064194</v>
       </c>
       <c r="G20">
-        <v>0.2759919687392554</v>
+        <v>0.4590380611284957</v>
       </c>
       <c r="H20">
-        <v>0.2401675418498144</v>
+        <v>0.6132758308617525</v>
       </c>
       <c r="I20">
-        <v>0.2612577408878849</v>
+        <v>0.627475371058253</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.406327889257852</v>
+        <v>0.4378046382909133</v>
       </c>
       <c r="L20">
-        <v>0.5731423766477093</v>
+        <v>0.3433906861292826</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.03750181520229</v>
+        <v>2.101076801140977</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.965590092340022</v>
+        <v>0.7068591541124363</v>
       </c>
       <c r="C21">
-        <v>0.1120928500531946</v>
+        <v>0.2120641095566356</v>
       </c>
       <c r="D21">
-        <v>0.1290861188107471</v>
+        <v>0.05046868331331211</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4340485708098072</v>
+        <v>0.6241619698598342</v>
       </c>
       <c r="G21">
-        <v>0.2882932889626133</v>
+        <v>0.4568427547731488</v>
       </c>
       <c r="H21">
-        <v>0.2391522625222819</v>
+        <v>0.6083090387839576</v>
       </c>
       <c r="I21">
-        <v>0.2586069949912044</v>
+        <v>0.6207209557643374</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.574304901845125</v>
+        <v>0.4913052224122794</v>
       </c>
       <c r="L21">
-        <v>0.6439042131153627</v>
+        <v>0.3608077167601635</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.061852530787135</v>
+        <v>2.086284414868132</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.110166216503103</v>
+        <v>0.7504992823737098</v>
       </c>
       <c r="C22">
-        <v>0.110729059394238</v>
+        <v>0.2113294371017389</v>
       </c>
       <c r="D22">
-        <v>0.137488904196104</v>
+        <v>0.05323185296151678</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.451490369760549</v>
+        <v>0.6247148549045889</v>
       </c>
       <c r="G22">
-        <v>0.29725086821405</v>
+        <v>0.4557018062885803</v>
       </c>
       <c r="H22">
-        <v>0.2390129003675483</v>
+        <v>0.6052988932662373</v>
       </c>
       <c r="I22">
-        <v>0.2576723099395188</v>
+        <v>0.6166183160617322</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.684273074051873</v>
+        <v>0.52617140215321</v>
       </c>
       <c r="L22">
-        <v>0.6908006803947302</v>
+        <v>0.3723386631575352</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.08080385652562</v>
+        <v>2.077726645206099</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.032956451591758</v>
+        <v>0.727209304553071</v>
       </c>
       <c r="C23">
-        <v>0.1114491886414442</v>
+        <v>0.2117174384403029</v>
       </c>
       <c r="D23">
-        <v>0.1330037534722379</v>
+        <v>0.05175838077848027</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4420852957694237</v>
+        <v>0.6243878751601954</v>
       </c>
       <c r="G23">
-        <v>0.2923822410708539</v>
+        <v>0.4562838451065758</v>
       </c>
       <c r="H23">
-        <v>0.2390376500110918</v>
+        <v>0.6068838868094133</v>
       </c>
       <c r="I23">
-        <v>0.2580954278007574</v>
+        <v>0.6187794368862392</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.625560655788092</v>
+        <v>0.5075720112177748</v>
       </c>
       <c r="L23">
-        <v>0.6657078215396552</v>
+        <v>0.3661708846576914</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.070399751128917</v>
+        <v>2.082192503037106</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.741474299111871</v>
+        <v>0.6389726838885394</v>
       </c>
       <c r="C24">
-        <v>0.1143452583569058</v>
+        <v>0.2132773366352012</v>
       </c>
       <c r="D24">
-        <v>0.1160228340348795</v>
+        <v>0.04614991957717507</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.408503946284327</v>
+        <v>0.6238502045667857</v>
       </c>
       <c r="G24">
-        <v>0.2758055787960316</v>
+        <v>0.4590788972221489</v>
       </c>
       <c r="H24">
-        <v>0.2401926224286086</v>
+        <v>0.6133609960755209</v>
       </c>
       <c r="I24">
-        <v>0.261313934833229</v>
+        <v>0.6275910296291727</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.403584794686282</v>
+        <v>0.4369285713861473</v>
       </c>
       <c r="L24">
-        <v>0.5719959281835685</v>
+        <v>0.343108519337548</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.037152564670691</v>
+        <v>2.101337306289338</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.42852563670678</v>
+        <v>0.5437651131650227</v>
       </c>
       <c r="C25">
-        <v>0.1178198424999231</v>
+        <v>0.2151542002648128</v>
       </c>
       <c r="D25">
-        <v>0.09769765713160439</v>
+        <v>0.04004239885826877</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3762035691161216</v>
+        <v>0.6247673471357373</v>
       </c>
       <c r="G25">
-        <v>0.261501723492259</v>
+        <v>0.4633528758287682</v>
       </c>
       <c r="H25">
-        <v>0.2435293630809738</v>
+        <v>0.6213616842069101</v>
       </c>
       <c r="I25">
-        <v>0.2679472068466673</v>
+        <v>0.6384333549791137</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.164624781255242</v>
+        <v>0.3603245194033491</v>
       </c>
       <c r="L25">
-        <v>0.4733282059794277</v>
+        <v>0.3188707898409007</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.013220734296013</v>
+        <v>2.126750425267261</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_189/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_189/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4736548282512274</v>
+        <v>1.198808722265341</v>
       </c>
       <c r="C2">
-        <v>0.2167045972234583</v>
+        <v>0.1206712537982852</v>
       </c>
       <c r="D2">
-        <v>0.03549638714461167</v>
+        <v>0.08417492776212754</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6267297712044311</v>
+        <v>0.3553839749022316</v>
       </c>
       <c r="G2">
-        <v>0.4675799249437631</v>
+        <v>0.2536682351530857</v>
       </c>
       <c r="H2">
-        <v>0.6281267015680569</v>
+        <v>0.2476204854822512</v>
       </c>
       <c r="I2">
-        <v>0.6475669555290722</v>
+        <v>0.2752795660400871</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3035872364264662</v>
+        <v>0.9887261864213315</v>
       </c>
       <c r="L2">
-        <v>0.3015734276458062</v>
+        <v>0.4023580874263928</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.149556015944952</v>
+        <v>1.004715785231156</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4261442327014038</v>
+        <v>1.043317788322355</v>
       </c>
       <c r="C3">
-        <v>0.2178611245974764</v>
+        <v>0.1227825895769996</v>
       </c>
       <c r="D3">
-        <v>0.03238533503401442</v>
+        <v>0.07498142558048215</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6288625145977704</v>
+        <v>0.3429322542387681</v>
       </c>
       <c r="G3">
-        <v>0.4711170883961273</v>
+        <v>0.2498675868390663</v>
       </c>
       <c r="H3">
-        <v>0.633257725356394</v>
+        <v>0.2513366219801227</v>
       </c>
       <c r="I3">
-        <v>0.654474542775894</v>
+        <v>0.2816502982191409</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2649351231132471</v>
+        <v>0.8693835387744855</v>
       </c>
       <c r="L3">
-        <v>0.2901931964065341</v>
+        <v>0.3551243409722815</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.167564603810419</v>
+        <v>1.004108000203473</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3969783963001134</v>
+        <v>0.9478650108875115</v>
       </c>
       <c r="C4">
-        <v>0.2186236695307926</v>
+        <v>0.1241659956234145</v>
       </c>
       <c r="D4">
-        <v>0.03046043976647184</v>
+        <v>0.06931919263754338</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6305680382662757</v>
+        <v>0.3360455473365178</v>
       </c>
       <c r="G4">
-        <v>0.4736201968416864</v>
+        <v>0.2482235504325985</v>
       </c>
       <c r="H4">
-        <v>0.6366780062700741</v>
+        <v>0.2540601775119029</v>
       </c>
       <c r="I4">
-        <v>0.6590698188082804</v>
+        <v>0.2862141131978468</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2411067174988517</v>
+        <v>0.7959919555619877</v>
       </c>
       <c r="L4">
-        <v>0.2833747787254453</v>
+        <v>0.32649218838651</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.179881040412099</v>
+        <v>1.006113428975084</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3850953945984088</v>
+        <v>0.9089623206996862</v>
       </c>
       <c r="C5">
-        <v>0.2189476328174322</v>
+        <v>0.1247514576869371</v>
       </c>
       <c r="D5">
-        <v>0.02967237630085862</v>
+        <v>0.06700702376463141</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6313626603166611</v>
+        <v>0.333421615388346</v>
       </c>
       <c r="G5">
-        <v>0.4747234837178382</v>
+        <v>0.2477193033076972</v>
       </c>
       <c r="H5">
-        <v>0.6381396941951323</v>
+        <v>0.2552778037870382</v>
       </c>
       <c r="I5">
-        <v>0.6610314406230131</v>
+        <v>0.288232320792563</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2313730080356748</v>
+        <v>0.7660492326996007</v>
       </c>
       <c r="L5">
-        <v>0.2806388413277716</v>
+        <v>0.3149095248282521</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.18521668437802</v>
+        <v>1.007505457220802</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3831223956892131</v>
+        <v>0.902501987786394</v>
       </c>
       <c r="C6">
-        <v>0.2190022261793061</v>
+        <v>0.1248499797324918</v>
       </c>
       <c r="D6">
-        <v>0.02954129958363438</v>
+        <v>0.06662279119380088</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6315006235317711</v>
+        <v>0.33299669650075</v>
       </c>
       <c r="G6">
-        <v>0.4749117102144922</v>
+        <v>0.2476453632193838</v>
       </c>
       <c r="H6">
-        <v>0.6383865085456861</v>
+        <v>0.2554864026510799</v>
       </c>
       <c r="I6">
-        <v>0.6613625422681402</v>
+        <v>0.2885768518276244</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2297553367560567</v>
+        <v>0.7610749751085137</v>
       </c>
       <c r="L6">
-        <v>0.2801871184021536</v>
+        <v>0.3129911563966061</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.186121785241113</v>
+        <v>1.007770655413637</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3968181275021152</v>
+        <v>0.9473403879684952</v>
       </c>
       <c r="C7">
-        <v>0.2186279850389248</v>
+        <v>0.1241738036763849</v>
       </c>
       <c r="D7">
-        <v>0.03044982640270888</v>
+        <v>0.06928802970648462</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6305783514750303</v>
+        <v>0.3360094320626956</v>
       </c>
       <c r="G7">
-        <v>0.4736347391484301</v>
+        <v>0.2482160889492491</v>
       </c>
       <c r="H7">
-        <v>0.6366974441316415</v>
+        <v>0.2540761668675628</v>
       </c>
       <c r="I7">
-        <v>0.6590959135352037</v>
+        <v>0.286240697231424</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2409755393205302</v>
+        <v>0.7955882873995961</v>
       </c>
       <c r="L7">
-        <v>0.2833377081989994</v>
+        <v>0.3263356456780286</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.179951716904526</v>
+        <v>1.006129905118939</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4572724467923024</v>
+        <v>1.145185353777521</v>
       </c>
       <c r="C8">
-        <v>0.2170925067429117</v>
+        <v>0.1213810707026504</v>
       </c>
       <c r="D8">
-        <v>0.03442677135549843</v>
+        <v>0.08100837185276077</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6273829643241342</v>
+        <v>0.3509280330819067</v>
       </c>
       <c r="G8">
-        <v>0.4687307509222265</v>
+        <v>0.2522099212981033</v>
       </c>
       <c r="H8">
-        <v>0.629839908889366</v>
+        <v>0.2488080486775601</v>
       </c>
       <c r="I8">
-        <v>0.6498752189581012</v>
+        <v>0.2773374136551645</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2902802668666311</v>
+        <v>0.9475967561307925</v>
       </c>
       <c r="L8">
-        <v>0.2976144875670457</v>
+        <v>0.3859903978555081</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.155504044476743</v>
+        <v>1.003998197836694</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5758386103598241</v>
+        <v>1.533798210898652</v>
       </c>
       <c r="C9">
-        <v>0.2144958996641328</v>
+        <v>0.1166033466902441</v>
       </c>
       <c r="D9">
-        <v>0.04210740397899571</v>
+        <v>0.1038737376345296</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6242584414869725</v>
+        <v>0.3865973172237602</v>
       </c>
       <c r="G9">
-        <v>0.4617452119428975</v>
+        <v>0.2658765394584606</v>
       </c>
       <c r="H9">
-        <v>0.6185309833406549</v>
+        <v>0.2421409621218373</v>
       </c>
       <c r="I9">
-        <v>0.6346023920368005</v>
+        <v>0.2653150238724358</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3861815770474379</v>
+        <v>1.245088585426174</v>
       </c>
       <c r="L9">
-        <v>0.3269500514772687</v>
+        <v>0.506278284575103</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.117553894841322</v>
+        <v>1.019792515346424</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6629253498201706</v>
+        <v>1.820447110035474</v>
       </c>
       <c r="C10">
-        <v>0.2128387197776789</v>
+        <v>0.1135311727562325</v>
       </c>
       <c r="D10">
-        <v>0.0476767791613355</v>
+        <v>0.1206314145001528</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6238783049092476</v>
+        <v>0.4172897859545799</v>
       </c>
       <c r="G10">
-        <v>0.4582210439599166</v>
+        <v>0.2800047415306892</v>
       </c>
       <c r="H10">
-        <v>0.6115232417342824</v>
+        <v>0.239706478652387</v>
       </c>
       <c r="I10">
-        <v>0.6250940906750664</v>
+        <v>0.2601781779911505</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4561352670904739</v>
+        <v>1.463778750042451</v>
       </c>
       <c r="L10">
-        <v>0.349317902736999</v>
+        <v>0.5972217354806872</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.095766085073663</v>
+        <v>1.045181174054377</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7025316770110237</v>
+        <v>1.951275971647107</v>
       </c>
       <c r="C11">
-        <v>0.2121387859658839</v>
+        <v>0.1122315167349299</v>
       </c>
       <c r="D11">
-        <v>0.05019415081019929</v>
+        <v>0.1282531690252</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6241213970008275</v>
+        <v>0.4323616446130458</v>
       </c>
       <c r="G11">
-        <v>0.4569678903981895</v>
+        <v>0.2874438994931054</v>
       </c>
       <c r="H11">
-        <v>0.6086171248282852</v>
+        <v>0.2391880348678441</v>
       </c>
       <c r="I11">
-        <v>0.621140464518259</v>
+        <v>0.2587331466795355</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4878441844321912</v>
+        <v>1.563410493060672</v>
       </c>
       <c r="L11">
-        <v>0.3596704841940408</v>
+        <v>0.6392823397804648</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.08717825935824</v>
+        <v>1.060101356579409</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7175274055467185</v>
+        <v>2.000894743540357</v>
       </c>
       <c r="C12">
-        <v>0.2118814590594482</v>
+        <v>0.1117537053139728</v>
       </c>
       <c r="D12">
-        <v>0.05114505207154707</v>
+        <v>0.1311397360096578</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6242732620389546</v>
+        <v>0.4382404296776983</v>
       </c>
       <c r="G12">
-        <v>0.4565437499295157</v>
+        <v>0.2904174757483986</v>
       </c>
       <c r="H12">
-        <v>0.6075571226137129</v>
+        <v>0.2390812213065558</v>
       </c>
       <c r="I12">
-        <v>0.6196967965971467</v>
+        <v>0.2583221138346303</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4998346420470909</v>
+        <v>1.601169840234121</v>
       </c>
       <c r="L12">
-        <v>0.3636161673138929</v>
+        <v>0.6553202264217504</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.084116648891197</v>
+        <v>1.066269381953632</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7142979250912163</v>
+        <v>1.990204794770307</v>
       </c>
       <c r="C13">
-        <v>0.2119365360377969</v>
+        <v>0.1118559684078164</v>
       </c>
       <c r="D13">
-        <v>0.0509403647678397</v>
+        <v>0.1305180359791365</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6242378952586449</v>
+        <v>0.436966509182362</v>
       </c>
       <c r="G13">
-        <v>0.4566328534277133</v>
+        <v>0.2897699192105065</v>
       </c>
       <c r="H13">
-        <v>0.6077836131641234</v>
+        <v>0.2391001647660929</v>
       </c>
       <c r="I13">
-        <v>0.6200053371413148</v>
+        <v>0.2584044494522999</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4972530509119792</v>
+        <v>1.59303615120524</v>
       </c>
       <c r="L13">
-        <v>0.3627652666903742</v>
+        <v>0.6518610818035597</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.084767551470222</v>
+        <v>1.064917392533914</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7037654364800972</v>
+        <v>1.9553565119854</v>
       </c>
       <c r="C14">
-        <v>0.2121174609294982</v>
+        <v>0.112191917938695</v>
       </c>
       <c r="D14">
-        <v>0.05027242985906355</v>
+        <v>0.1284906377086799</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6241326923914272</v>
+        <v>0.4328417904322492</v>
       </c>
       <c r="G14">
-        <v>0.4569319855817042</v>
+        <v>0.2876853350482662</v>
       </c>
       <c r="H14">
-        <v>0.6085291066917407</v>
+        <v>0.239177424729732</v>
       </c>
       <c r="I14">
-        <v>0.6210206210235931</v>
+        <v>0.2586965545623663</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4888309918381424</v>
+        <v>1.566516299029047</v>
       </c>
       <c r="L14">
-        <v>0.3599945898257317</v>
+        <v>0.6405995059180327</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.086922562178785</v>
+        <v>1.060598222311668</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6973136529645672</v>
+        <v>1.934021379859388</v>
       </c>
       <c r="C15">
-        <v>0.2122292874581859</v>
+        <v>0.1123995723226727</v>
       </c>
       <c r="D15">
-        <v>0.04986299000739791</v>
+        <v>0.1272488641214693</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.624076041434094</v>
+        <v>0.4303379654198167</v>
       </c>
       <c r="G15">
-        <v>0.4571217785218238</v>
+        <v>0.2864291890148749</v>
       </c>
       <c r="H15">
-        <v>0.6089910138798658</v>
+        <v>0.2392365533360206</v>
       </c>
       <c r="I15">
-        <v>0.6216494777912764</v>
+        <v>0.2588934543176187</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4836699995048548</v>
+        <v>1.550276454240958</v>
       </c>
       <c r="L15">
-        <v>0.3583007727074516</v>
+        <v>0.6337161947558059</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.088267368358132</v>
+        <v>1.058021099750292</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6603367068794057</v>
+        <v>1.811907044855218</v>
       </c>
       <c r="C16">
-        <v>0.2128855445108186</v>
+        <v>0.1136181003204655</v>
       </c>
       <c r="D16">
-        <v>0.04751193359936678</v>
+        <v>0.1201333351094007</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6238707886592749</v>
+        <v>0.416328129502368</v>
       </c>
       <c r="G16">
-        <v>0.4583099896318785</v>
+        <v>0.2795398660014001</v>
       </c>
       <c r="H16">
-        <v>0.6117188298412373</v>
+        <v>0.2397526171827877</v>
       </c>
       <c r="I16">
-        <v>0.6253599523279689</v>
+        <v>0.2602912261705832</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4540606720047435</v>
+        <v>1.45727137538438</v>
       </c>
       <c r="L16">
-        <v>0.3486448957839343</v>
+        <v>0.594487804037712</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.096353960517249</v>
+        <v>1.044276739488538</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.637649373402752</v>
+        <v>1.737114390226992</v>
       </c>
       <c r="C17">
-        <v>0.2133019259981168</v>
+        <v>0.1143908826088591</v>
       </c>
       <c r="D17">
-        <v>0.04606546207809004</v>
+        <v>0.1157682282386787</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6238514171396261</v>
+        <v>0.4080259650261837</v>
       </c>
       <c r="G17">
-        <v>0.4591286148948441</v>
+        <v>0.2755803354789634</v>
       </c>
       <c r="H17">
-        <v>0.6134643936608342</v>
+        <v>0.2402233974932315</v>
       </c>
       <c r="I17">
-        <v>0.6277314415719921</v>
+        <v>0.2613826117356908</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4358667601603372</v>
+        <v>1.40026042655515</v>
       </c>
       <c r="L17">
-        <v>0.3427666659217579</v>
+        <v>0.5706069451064337</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.101653880277993</v>
+        <v>1.036731460186786</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6245993446916884</v>
+        <v>1.694135242040829</v>
       </c>
       <c r="C18">
-        <v>0.2135464952191484</v>
+        <v>0.1148445638357529</v>
       </c>
       <c r="D18">
-        <v>0.04523197127058154</v>
+        <v>0.1132573661708278</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.623879433522724</v>
+        <v>0.403354481414361</v>
       </c>
       <c r="G18">
-        <v>0.4596324067493853</v>
+        <v>0.273397492689277</v>
       </c>
       <c r="H18">
-        <v>0.6144949164408757</v>
+        <v>0.2405493138612016</v>
       </c>
       <c r="I18">
-        <v>0.6291304484974489</v>
+        <v>0.2620937808147445</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4253914754667676</v>
+        <v>1.367482596518471</v>
       </c>
       <c r="L18">
-        <v>0.3394023620362674</v>
+        <v>0.5569355366427402</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.104826828466258</v>
+        <v>1.032706772379242</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6201807067286325</v>
+        <v>1.679589610424188</v>
       </c>
       <c r="C19">
-        <v>0.2136301752068093</v>
+        <v>0.1149997443746287</v>
       </c>
       <c r="D19">
-        <v>0.04494950624514615</v>
+        <v>0.1124071856382898</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6238956452076678</v>
+        <v>0.4017902592384388</v>
       </c>
       <c r="G19">
-        <v>0.4598086373597994</v>
+        <v>0.2726743390423749</v>
       </c>
       <c r="H19">
-        <v>0.6148483896904366</v>
+        <v>0.2406689913783637</v>
       </c>
       <c r="I19">
-        <v>0.6296101367582168</v>
+        <v>0.2623486659128815</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.421842920674095</v>
+        <v>1.356386599391897</v>
       </c>
       <c r="L19">
-        <v>0.3382661380113205</v>
+        <v>0.5523173334673004</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.105922527322647</v>
+        <v>1.031397226839218</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6400645758858445</v>
+        <v>1.745071992944276</v>
       </c>
       <c r="C20">
-        <v>0.2132570761960437</v>
+        <v>0.1143076648722925</v>
       </c>
       <c r="D20">
-        <v>0.04621959896415717</v>
+        <v>0.1162329146623193</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6238494266064194</v>
+        <v>0.4088989284331319</v>
       </c>
       <c r="G20">
-        <v>0.4590380611284957</v>
+        <v>0.2759919687391985</v>
       </c>
       <c r="H20">
-        <v>0.6132758308617525</v>
+        <v>0.2401675418496936</v>
       </c>
       <c r="I20">
-        <v>0.627475371058253</v>
+        <v>0.2612577408878671</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4378046382909133</v>
+        <v>1.406327889257796</v>
       </c>
       <c r="L20">
-        <v>0.3433906861292826</v>
+        <v>0.5731423766476951</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.101076801140977</v>
+        <v>1.037501815202262</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7068591541124363</v>
+        <v>1.965590092340193</v>
       </c>
       <c r="C21">
-        <v>0.2120641095566356</v>
+        <v>0.112092850053422</v>
       </c>
       <c r="D21">
-        <v>0.05046868331331211</v>
+        <v>0.1290861188106192</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6241619698598342</v>
+        <v>0.4340485708097788</v>
       </c>
       <c r="G21">
-        <v>0.4568427547731488</v>
+        <v>0.2882932889627341</v>
       </c>
       <c r="H21">
-        <v>0.6083090387839576</v>
+        <v>0.2391522625222819</v>
       </c>
       <c r="I21">
-        <v>0.6207209557643374</v>
+        <v>0.2586069949912151</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4913052224122794</v>
+        <v>1.57430490184521</v>
       </c>
       <c r="L21">
-        <v>0.3608077167601635</v>
+        <v>0.6439042131154196</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.086284414868132</v>
+        <v>1.061852530787192</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7504992823737098</v>
+        <v>2.110166216502989</v>
       </c>
       <c r="C22">
-        <v>0.2113294371017389</v>
+        <v>0.1107290593943091</v>
       </c>
       <c r="D22">
-        <v>0.05323185296151678</v>
+        <v>0.1374889041963172</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6247148549045889</v>
+        <v>0.451490369760549</v>
       </c>
       <c r="G22">
-        <v>0.4557018062885803</v>
+        <v>0.2972508682140358</v>
       </c>
       <c r="H22">
-        <v>0.6052988932662373</v>
+        <v>0.239012900367662</v>
       </c>
       <c r="I22">
-        <v>0.6166183160617322</v>
+        <v>0.2576723099395224</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.52617140215321</v>
+        <v>1.684273074051958</v>
       </c>
       <c r="L22">
-        <v>0.3723386631575352</v>
+        <v>0.6908006803947444</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.077726645206099</v>
+        <v>1.080803856525677</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.727209304553071</v>
+        <v>2.032956451591758</v>
       </c>
       <c r="C23">
-        <v>0.2117174384403029</v>
+        <v>0.1114491886412168</v>
       </c>
       <c r="D23">
-        <v>0.05175838077848027</v>
+        <v>0.13300375347211</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6243878751601954</v>
+        <v>0.4420852957694237</v>
       </c>
       <c r="G23">
-        <v>0.4562838451065758</v>
+        <v>0.2923822410707189</v>
       </c>
       <c r="H23">
-        <v>0.6068838868094133</v>
+        <v>0.2390376500110918</v>
       </c>
       <c r="I23">
-        <v>0.6187794368862392</v>
+        <v>0.2580954278007503</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5075720112177748</v>
+        <v>1.625560655788178</v>
       </c>
       <c r="L23">
-        <v>0.3661708846576914</v>
+        <v>0.6657078215397121</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.082192503037106</v>
+        <v>1.070399751128889</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6389726838885394</v>
+        <v>1.7414742991119</v>
       </c>
       <c r="C24">
-        <v>0.2132773366352012</v>
+        <v>0.1143452583568987</v>
       </c>
       <c r="D24">
-        <v>0.04614991957717507</v>
+        <v>0.1160228340347231</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6238502045667857</v>
+        <v>0.408503946284327</v>
       </c>
       <c r="G24">
-        <v>0.4590788972221489</v>
+        <v>0.2758055787959748</v>
       </c>
       <c r="H24">
-        <v>0.6133609960755209</v>
+        <v>0.2401926224286086</v>
       </c>
       <c r="I24">
-        <v>0.6275910296291727</v>
+        <v>0.2613139348332254</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4369285713861473</v>
+        <v>1.403584794686111</v>
       </c>
       <c r="L24">
-        <v>0.343108519337548</v>
+        <v>0.5719959281835969</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.101337306289338</v>
+        <v>1.037152564670691</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5437651131650227</v>
+        <v>1.428525636706752</v>
       </c>
       <c r="C25">
-        <v>0.2151542002648128</v>
+        <v>0.1178198425000012</v>
       </c>
       <c r="D25">
-        <v>0.04004239885826877</v>
+        <v>0.09769765713163991</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6247673471357373</v>
+        <v>0.3762035691161216</v>
       </c>
       <c r="G25">
-        <v>0.4633528758287682</v>
+        <v>0.2615017234921808</v>
       </c>
       <c r="H25">
-        <v>0.6213616842069101</v>
+        <v>0.2435293630810804</v>
       </c>
       <c r="I25">
-        <v>0.6384333549791137</v>
+        <v>0.2679472068466566</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3603245194033491</v>
+        <v>1.164624781255327</v>
       </c>
       <c r="L25">
-        <v>0.3188707898409007</v>
+        <v>0.4733282059794846</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.126750425267261</v>
+        <v>1.013220734296056</v>
       </c>
     </row>
   </sheetData>
